--- a/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids_syn_5\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AC34855-3843-4F35-AFE2-B448A5DB6DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1549937C-7172-4E76-9811-9C3A031C862D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="misc" sheetId="7" r:id="rId1"/>
@@ -897,6 +897,60 @@
     <t>daynite</t>
   </si>
   <si>
+    <t>distr_solelc_spv_002</t>
+  </si>
+  <si>
+    <t>connecting solar to buses in cluster 2</t>
+  </si>
+  <si>
+    <t>distr_solelc_spv_001</t>
+  </si>
+  <si>
+    <t>connecting solar to buses in cluster 1</t>
+  </si>
+  <si>
+    <t>distr_solelc_spv_004</t>
+  </si>
+  <si>
+    <t>connecting solar to buses in cluster 4</t>
+  </si>
+  <si>
+    <t>distr_solelc_spv_012</t>
+  </si>
+  <si>
+    <t>connecting solar to buses in cluster 12</t>
+  </si>
+  <si>
+    <t>distr_solelc_spv_020</t>
+  </si>
+  <si>
+    <t>connecting solar to buses in cluster 20</t>
+  </si>
+  <si>
+    <t>distr_solelc_spv_017</t>
+  </si>
+  <si>
+    <t>connecting solar to buses in cluster 17</t>
+  </si>
+  <si>
+    <t>distr_solelc_spv_018</t>
+  </si>
+  <si>
+    <t>connecting solar to buses in cluster 18</t>
+  </si>
+  <si>
+    <t>distr_solelc_spv_013</t>
+  </si>
+  <si>
+    <t>connecting solar to buses in cluster 13</t>
+  </si>
+  <si>
+    <t>distr_solelc_spv_016</t>
+  </si>
+  <si>
+    <t>connecting solar to buses in cluster 16</t>
+  </si>
+  <si>
     <t>distr_solelc_spv_005</t>
   </si>
   <si>
@@ -921,48 +975,42 @@
     <t>connecting solar to buses in cluster 15</t>
   </si>
   <si>
+    <t>distr_solelc_spv_009</t>
+  </si>
+  <si>
+    <t>connecting solar to buses in cluster 9</t>
+  </si>
+  <si>
     <t>distr_solelc_spv_011</t>
   </si>
   <si>
     <t>connecting solar to buses in cluster 11</t>
   </si>
   <si>
+    <t>distr_solelc_spv_022</t>
+  </si>
+  <si>
+    <t>connecting solar to buses in cluster 22</t>
+  </si>
+  <si>
+    <t>distr_solelc_spv_021</t>
+  </si>
+  <si>
+    <t>connecting solar to buses in cluster 21</t>
+  </si>
+  <si>
+    <t>distr_solelc_spv_023</t>
+  </si>
+  <si>
+    <t>connecting solar to buses in cluster 23</t>
+  </si>
+  <si>
     <t>distr_solelc_spv_006</t>
   </si>
   <si>
     <t>connecting solar to buses in cluster 6</t>
   </si>
   <si>
-    <t>distr_solelc_spv_009</t>
-  </si>
-  <si>
-    <t>connecting solar to buses in cluster 9</t>
-  </si>
-  <si>
-    <t>distr_solelc_spv_018</t>
-  </si>
-  <si>
-    <t>connecting solar to buses in cluster 18</t>
-  </si>
-  <si>
-    <t>distr_solelc_spv_013</t>
-  </si>
-  <si>
-    <t>connecting solar to buses in cluster 13</t>
-  </si>
-  <si>
-    <t>distr_solelc_spv_016</t>
-  </si>
-  <si>
-    <t>connecting solar to buses in cluster 16</t>
-  </si>
-  <si>
-    <t>distr_solelc_spv_002</t>
-  </si>
-  <si>
-    <t>connecting solar to buses in cluster 2</t>
-  </si>
-  <si>
     <t>distr_solelc_spv_007</t>
   </si>
   <si>
@@ -987,54 +1035,6 @@
     <t>connecting solar to buses in cluster 24</t>
   </si>
   <si>
-    <t>distr_solelc_spv_001</t>
-  </si>
-  <si>
-    <t>connecting solar to buses in cluster 1</t>
-  </si>
-  <si>
-    <t>distr_solelc_spv_022</t>
-  </si>
-  <si>
-    <t>connecting solar to buses in cluster 22</t>
-  </si>
-  <si>
-    <t>distr_solelc_spv_021</t>
-  </si>
-  <si>
-    <t>connecting solar to buses in cluster 21</t>
-  </si>
-  <si>
-    <t>distr_solelc_spv_023</t>
-  </si>
-  <si>
-    <t>connecting solar to buses in cluster 23</t>
-  </si>
-  <si>
-    <t>distr_solelc_spv_004</t>
-  </si>
-  <si>
-    <t>connecting solar to buses in cluster 4</t>
-  </si>
-  <si>
-    <t>distr_solelc_spv_012</t>
-  </si>
-  <si>
-    <t>connecting solar to buses in cluster 12</t>
-  </si>
-  <si>
-    <t>distr_solelc_spv_020</t>
-  </si>
-  <si>
-    <t>connecting solar to buses in cluster 20</t>
-  </si>
-  <si>
-    <t>distr_solelc_spv_017</t>
-  </si>
-  <si>
-    <t>connecting solar to buses in cluster 17</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
@@ -1044,6 +1044,24 @@
     <t>e_gen3,e_gen1,e_dem1</t>
   </si>
   <si>
+    <t>e_dem3</t>
+  </si>
+  <si>
+    <t>e_gen2</t>
+  </si>
+  <si>
+    <t>e_gen1,e_dem4</t>
+  </si>
+  <si>
+    <t>e_dem1</t>
+  </si>
+  <si>
+    <t>e_gen2,e_dem0</t>
+  </si>
+  <si>
+    <t>e_gen0,e_dem2</t>
+  </si>
+  <si>
     <t>e_gen4</t>
   </si>
   <si>
@@ -1056,22 +1074,16 @@
     <t>e_dem2</t>
   </si>
   <si>
+    <t>e_gen4,e_dem1</t>
+  </si>
+  <si>
     <t>e_gen3,e_gen2</t>
   </si>
   <si>
-    <t>e_gen4,e_dem1</t>
-  </si>
-  <si>
-    <t>e_dem1</t>
-  </si>
-  <si>
-    <t>e_gen2,e_dem0</t>
-  </si>
-  <si>
-    <t>e_gen0,e_dem2</t>
-  </si>
-  <si>
-    <t>e_dem3</t>
+    <t>e_dem1,e_gen1</t>
+  </si>
+  <si>
+    <t>e_gen1</t>
   </si>
   <si>
     <t>e_dem3,e_gen4,e_dem1</t>
@@ -1083,16 +1095,82 @@
     <t>e_gen1,e_dem1</t>
   </si>
   <si>
-    <t>e_dem1,e_gen1</t>
-  </si>
-  <si>
-    <t>e_gen1</t>
-  </si>
-  <si>
-    <t>e_gen2</t>
-  </si>
-  <si>
-    <t>e_gen1,e_dem4</t>
+    <t>distr_wonelc_won_009</t>
+  </si>
+  <si>
+    <t>connecting wind onshore to buses in cluster 9</t>
+  </si>
+  <si>
+    <t>distr_wonelc_won_017</t>
+  </si>
+  <si>
+    <t>connecting wind onshore to buses in cluster 17</t>
+  </si>
+  <si>
+    <t>distr_wonelc_won_008</t>
+  </si>
+  <si>
+    <t>connecting wind onshore to buses in cluster 8</t>
+  </si>
+  <si>
+    <t>distr_wonelc_won_012</t>
+  </si>
+  <si>
+    <t>connecting wind onshore to buses in cluster 12</t>
+  </si>
+  <si>
+    <t>distr_wonelc_won_001</t>
+  </si>
+  <si>
+    <t>connecting wind onshore to buses in cluster 1</t>
+  </si>
+  <si>
+    <t>distr_wonelc_won_015</t>
+  </si>
+  <si>
+    <t>connecting wind onshore to buses in cluster 15</t>
+  </si>
+  <si>
+    <t>distr_wonelc_won_004</t>
+  </si>
+  <si>
+    <t>connecting wind onshore to buses in cluster 4</t>
+  </si>
+  <si>
+    <t>distr_wonelc_won_002</t>
+  </si>
+  <si>
+    <t>connecting wind onshore to buses in cluster 2</t>
+  </si>
+  <si>
+    <t>distr_wonelc_won_010</t>
+  </si>
+  <si>
+    <t>connecting wind onshore to buses in cluster 10</t>
+  </si>
+  <si>
+    <t>distr_wonelc_won_007</t>
+  </si>
+  <si>
+    <t>connecting wind onshore to buses in cluster 7</t>
+  </si>
+  <si>
+    <t>distr_wonelc_won_019</t>
+  </si>
+  <si>
+    <t>connecting wind onshore to buses in cluster 19</t>
+  </si>
+  <si>
+    <t>distr_wonelc_won_018</t>
+  </si>
+  <si>
+    <t>connecting wind onshore to buses in cluster 18</t>
+  </si>
+  <si>
+    <t>distr_wonelc_won_013</t>
+  </si>
+  <si>
+    <t>connecting wind onshore to buses in cluster 13</t>
   </si>
   <si>
     <t>distr_wonelc_won_011</t>
@@ -1101,12 +1179,6 @@
     <t>connecting wind onshore to buses in cluster 11</t>
   </si>
   <si>
-    <t>distr_wonelc_won_001</t>
-  </si>
-  <si>
-    <t>connecting wind onshore to buses in cluster 1</t>
-  </si>
-  <si>
     <t>distr_wonelc_won_016</t>
   </si>
   <si>
@@ -1125,34 +1197,10 @@
     <t>connecting wind onshore to buses in cluster 14</t>
   </si>
   <si>
-    <t>distr_wonelc_won_008</t>
-  </si>
-  <si>
-    <t>connecting wind onshore to buses in cluster 8</t>
-  </si>
-  <si>
-    <t>distr_wonelc_won_012</t>
-  </si>
-  <si>
-    <t>connecting wind onshore to buses in cluster 12</t>
-  </si>
-  <si>
-    <t>distr_wonelc_won_010</t>
-  </si>
-  <si>
-    <t>connecting wind onshore to buses in cluster 10</t>
-  </si>
-  <si>
-    <t>distr_wonelc_won_019</t>
-  </si>
-  <si>
-    <t>connecting wind onshore to buses in cluster 19</t>
-  </si>
-  <si>
-    <t>distr_wonelc_won_018</t>
-  </si>
-  <si>
-    <t>connecting wind onshore to buses in cluster 18</t>
+    <t>distr_wonelc_won_003</t>
+  </si>
+  <si>
+    <t>connecting wind onshore to buses in cluster 3</t>
   </si>
   <si>
     <t>distr_wonelc_won_005</t>
@@ -1161,60 +1209,63 @@
     <t>connecting wind onshore to buses in cluster 5</t>
   </si>
   <si>
-    <t>distr_wonelc_won_007</t>
-  </si>
-  <si>
-    <t>connecting wind onshore to buses in cluster 7</t>
-  </si>
-  <si>
-    <t>distr_wonelc_won_003</t>
-  </si>
-  <si>
-    <t>connecting wind onshore to buses in cluster 3</t>
-  </si>
-  <si>
-    <t>distr_wonelc_won_013</t>
-  </si>
-  <si>
-    <t>connecting wind onshore to buses in cluster 13</t>
-  </si>
-  <si>
-    <t>distr_wonelc_won_009</t>
-  </si>
-  <si>
-    <t>connecting wind onshore to buses in cluster 9</t>
-  </si>
-  <si>
-    <t>distr_wonelc_won_017</t>
-  </si>
-  <si>
-    <t>connecting wind onshore to buses in cluster 17</t>
-  </si>
-  <si>
-    <t>distr_wonelc_won_015</t>
-  </si>
-  <si>
-    <t>connecting wind onshore to buses in cluster 15</t>
-  </si>
-  <si>
-    <t>distr_wonelc_won_004</t>
-  </si>
-  <si>
-    <t>connecting wind onshore to buses in cluster 4</t>
-  </si>
-  <si>
-    <t>distr_wonelc_won_002</t>
-  </si>
-  <si>
-    <t>connecting wind onshore to buses in cluster 2</t>
+    <t>elc_won_009</t>
+  </si>
+  <si>
+    <t>elc_won_017</t>
+  </si>
+  <si>
+    <t>elc_won_008</t>
+  </si>
+  <si>
+    <t>elc_won_012</t>
+  </si>
+  <si>
+    <t>e_gen0,e_dem4</t>
+  </si>
+  <si>
+    <t>elc_won_001</t>
+  </si>
+  <si>
+    <t>elc_won_015</t>
+  </si>
+  <si>
+    <t>elc_won_004</t>
+  </si>
+  <si>
+    <t>elc_won_002</t>
+  </si>
+  <si>
+    <t>e_gen3,e_dem3,e_gen1,e_dem1</t>
+  </si>
+  <si>
+    <t>elc_won_010</t>
+  </si>
+  <si>
+    <t>elc_won_007</t>
+  </si>
+  <si>
+    <t>elc_won_019</t>
+  </si>
+  <si>
+    <t>e_dem0,e_gen0</t>
+  </si>
+  <si>
+    <t>elc_won_018</t>
+  </si>
+  <si>
+    <t>e_dem0</t>
+  </si>
+  <si>
+    <t>elc_won_013</t>
+  </si>
+  <si>
+    <t>e_gen0</t>
   </si>
   <si>
     <t>elc_won_011</t>
   </si>
   <si>
-    <t>elc_won_001</t>
-  </si>
-  <si>
     <t>elc_won_016</t>
   </si>
   <si>
@@ -1224,61 +1275,88 @@
     <t>elc_won_014</t>
   </si>
   <si>
-    <t>elc_won_008</t>
-  </si>
-  <si>
-    <t>elc_won_012</t>
-  </si>
-  <si>
-    <t>e_gen0,e_dem4</t>
-  </si>
-  <si>
-    <t>elc_won_010</t>
-  </si>
-  <si>
-    <t>elc_won_019</t>
-  </si>
-  <si>
-    <t>e_dem0,e_gen0</t>
-  </si>
-  <si>
-    <t>elc_won_018</t>
-  </si>
-  <si>
-    <t>e_dem0</t>
+    <t>elc_won_003</t>
   </si>
   <si>
     <t>elc_won_005</t>
   </si>
   <si>
-    <t>elc_won_007</t>
-  </si>
-  <si>
-    <t>elc_won_003</t>
-  </si>
-  <si>
-    <t>elc_won_013</t>
-  </si>
-  <si>
-    <t>e_gen0</t>
-  </si>
-  <si>
-    <t>elc_won_009</t>
-  </si>
-  <si>
-    <t>elc_won_017</t>
-  </si>
-  <si>
-    <t>elc_won_015</t>
-  </si>
-  <si>
-    <t>elc_won_004</t>
-  </si>
-  <si>
-    <t>elc_won_002</t>
-  </si>
-  <si>
-    <t>e_gen3,e_dem3,e_gen1,e_dem1</t>
+    <t>distr_wofelc_wof_004</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in cluster 4</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof_010</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in cluster 10</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof_014</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in cluster 14</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof_006</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in cluster 6</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof_011</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in cluster 11</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof_007</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in cluster 7</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof_009</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in cluster 9</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof_018</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in cluster 18</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof_012</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in cluster 12</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof_013</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in cluster 13</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof_017</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in cluster 17</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof_001</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in cluster 1</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof_003</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in cluster 3</t>
   </si>
   <si>
     <t>distr_wofelc_wof_016</t>
@@ -1287,66 +1365,6 @@
     <t>connecting wind offshore to buses in cluster 16</t>
   </si>
   <si>
-    <t>distr_wofelc_wof_003</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in cluster 3</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof_001</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in cluster 1</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof_010</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in cluster 10</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof_004</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in cluster 4</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof_011</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in cluster 11</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof_007</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in cluster 7</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof_009</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in cluster 9</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof_018</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in cluster 18</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof_012</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in cluster 12</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof_013</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in cluster 13</t>
-  </si>
-  <si>
     <t>distr_wofelc_wof_015</t>
   </si>
   <si>
@@ -1365,12 +1383,6 @@
     <t>connecting wind offshore to buses in cluster 5</t>
   </si>
   <si>
-    <t>distr_wofelc_wof_006</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in cluster 6</t>
-  </si>
-  <si>
     <t>distr_wofelc_wof_008</t>
   </si>
   <si>
@@ -1383,54 +1395,51 @@
     <t>connecting wind offshore to buses in cluster 19</t>
   </si>
   <si>
-    <t>distr_wofelc_wof_017</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in cluster 17</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof_014</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in cluster 14</t>
+    <t>elc_wof_004</t>
+  </si>
+  <si>
+    <t>elc_wof_010</t>
+  </si>
+  <si>
+    <t>elc_wof_014</t>
+  </si>
+  <si>
+    <t>elc_wof_006</t>
+  </si>
+  <si>
+    <t>elc_wof_011</t>
+  </si>
+  <si>
+    <t>elc_wof_007</t>
+  </si>
+  <si>
+    <t>elc_wof_009</t>
+  </si>
+  <si>
+    <t>elc_wof_018</t>
+  </si>
+  <si>
+    <t>elc_wof_012</t>
+  </si>
+  <si>
+    <t>e_dem4</t>
+  </si>
+  <si>
+    <t>elc_wof_013</t>
+  </si>
+  <si>
+    <t>elc_wof_017</t>
+  </si>
+  <si>
+    <t>elc_wof_001</t>
+  </si>
+  <si>
+    <t>elc_wof_003</t>
   </si>
   <si>
     <t>elc_wof_016</t>
   </si>
   <si>
-    <t>elc_wof_003</t>
-  </si>
-  <si>
-    <t>elc_wof_001</t>
-  </si>
-  <si>
-    <t>elc_wof_010</t>
-  </si>
-  <si>
-    <t>elc_wof_004</t>
-  </si>
-  <si>
-    <t>elc_wof_011</t>
-  </si>
-  <si>
-    <t>elc_wof_007</t>
-  </si>
-  <si>
-    <t>elc_wof_009</t>
-  </si>
-  <si>
-    <t>elc_wof_018</t>
-  </si>
-  <si>
-    <t>elc_wof_012</t>
-  </si>
-  <si>
-    <t>e_dem4</t>
-  </si>
-  <si>
-    <t>elc_wof_013</t>
-  </si>
-  <si>
     <t>elc_wof_015</t>
   </si>
   <si>
@@ -1440,9 +1449,6 @@
     <t>elc_wof_005</t>
   </si>
   <si>
-    <t>elc_wof_006</t>
-  </si>
-  <si>
     <t>elc_wof_008</t>
   </si>
   <si>
@@ -1450,12 +1456,6 @@
   </si>
   <si>
     <t>elc_wof_019</t>
-  </si>
-  <si>
-    <t>elc_wof_017</t>
-  </si>
-  <si>
-    <t>elc_wof_014</t>
   </si>
   <si>
     <t>e_won_001</t>
@@ -6482,7 +6482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43EE7D4-762F-4D07-AEB2-A704AB4498B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B05BC2C-655A-4D50-9E7D-3A2456879F9C}">
   <dimension ref="B9:BD34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6762,13 +6762,13 @@
         <v>360</v>
       </c>
       <c r="AN11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AO11">
-        <v>0.99483230658210964</v>
+        <v>0.9960929385350632</v>
       </c>
       <c r="AP11">
-        <v>94.741045994655948</v>
+        <v>71.629460190507217</v>
       </c>
       <c r="AR11" t="s">
         <v>251</v>
@@ -6798,13 +6798,13 @@
         <v>422</v>
       </c>
       <c r="BB11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="BC11">
-        <v>0.99025419259986314</v>
+        <v>0.98715647069024248</v>
       </c>
       <c r="BD11">
-        <v>178.67313566917599</v>
+        <v>235.46470401222211</v>
       </c>
     </row>
     <row r="12" spans="2:56">
@@ -6869,16 +6869,16 @@
         <v>256</v>
       </c>
       <c r="Y12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Z12" t="s">
         <v>305</v>
       </c>
       <c r="AA12">
-        <v>0.9883034158301095</v>
+        <v>0.99654704284184426</v>
       </c>
       <c r="AB12">
-        <v>214.43737644799285</v>
+        <v>63.304214566188087</v>
       </c>
       <c r="AD12" t="s">
         <v>251</v>
@@ -6908,13 +6908,13 @@
         <v>361</v>
       </c>
       <c r="AN12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AO12">
-        <v>0.99152474814089264</v>
+        <v>0.99757986255493836</v>
       </c>
       <c r="AP12">
-        <v>155.37961741696745</v>
+        <v>44.369186492796821</v>
       </c>
       <c r="AR12" t="s">
         <v>251</v>
@@ -6944,13 +6944,13 @@
         <v>423</v>
       </c>
       <c r="BB12" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="BC12">
-        <v>0.99213695242537014</v>
+        <v>0.98694570234571399</v>
       </c>
       <c r="BD12">
-        <v>144.15587220154825</v>
+        <v>239.32879032857716</v>
       </c>
     </row>
     <row r="13" spans="2:56">
@@ -7015,16 +7015,16 @@
         <v>258</v>
       </c>
       <c r="Y13" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="Z13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AA13">
-        <v>0.9901510390044167</v>
+        <v>0.99507556324399316</v>
       </c>
       <c r="AB13">
-        <v>180.56428491902676</v>
+        <v>90.28134052679161</v>
       </c>
       <c r="AD13" t="s">
         <v>251</v>
@@ -7054,13 +7054,13 @@
         <v>362</v>
       </c>
       <c r="AN13" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AO13">
-        <v>0.99434573613426058</v>
+        <v>0.99102029221888321</v>
       </c>
       <c r="AP13">
-        <v>103.6615042052228</v>
+        <v>164.62797598714178</v>
       </c>
       <c r="AR13" t="s">
         <v>251</v>
@@ -7090,13 +7090,13 @@
         <v>424</v>
       </c>
       <c r="BB13" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="BC13">
-        <v>0.98604752400777451</v>
+        <v>0.99123298444407149</v>
       </c>
       <c r="BD13">
-        <v>255.7953931908016</v>
+        <v>160.72861852535661</v>
       </c>
     </row>
     <row r="14" spans="2:56">
@@ -7161,16 +7161,16 @@
         <v>260</v>
       </c>
       <c r="Y14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="Z14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AA14">
-        <v>0.98960824105727241</v>
+        <v>0.9909877059540344</v>
       </c>
       <c r="AB14">
-        <v>190.51558061667333</v>
+        <v>165.22539084270321</v>
       </c>
       <c r="AD14" t="s">
         <v>251</v>
@@ -7200,13 +7200,13 @@
         <v>363</v>
       </c>
       <c r="AN14" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="AO14">
-        <v>0.99569846360282876</v>
+        <v>0.99103381617125441</v>
       </c>
       <c r="AP14">
-        <v>78.861500614806289</v>
+        <v>164.38003686033554</v>
       </c>
       <c r="AR14" t="s">
         <v>251</v>
@@ -7236,13 +7236,13 @@
         <v>425</v>
       </c>
       <c r="BB14" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="BC14">
-        <v>0.98694570234571399</v>
+        <v>0.99255087362635097</v>
       </c>
       <c r="BD14">
-        <v>239.32879032857716</v>
+        <v>136.56731685023306</v>
       </c>
     </row>
     <row r="15" spans="2:56">
@@ -7307,16 +7307,16 @@
         <v>262</v>
       </c>
       <c r="Y15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Z15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AA15">
-        <v>0.99237179242975782</v>
+        <v>0.99469106859785295</v>
       </c>
       <c r="AB15">
-        <v>139.85047212110769</v>
+        <v>97.330409039363303</v>
       </c>
       <c r="AD15" t="s">
         <v>251</v>
@@ -7343,16 +7343,16 @@
         <v>330</v>
       </c>
       <c r="AM15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN15" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AO15">
-        <v>0.99418326051727468</v>
+        <v>0.99152474814089264</v>
       </c>
       <c r="AP15">
-        <v>106.64022384996325</v>
+        <v>155.37961741696745</v>
       </c>
       <c r="AR15" t="s">
         <v>251</v>
@@ -7382,13 +7382,13 @@
         <v>426</v>
       </c>
       <c r="BB15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="BC15">
-        <v>0.98715647069024248</v>
+        <v>0.99121667726062745</v>
       </c>
       <c r="BD15">
-        <v>235.46470401222211</v>
+        <v>161.02758355516244</v>
       </c>
     </row>
     <row r="16" spans="2:56">
@@ -7453,16 +7453,16 @@
         <v>264</v>
       </c>
       <c r="Y16" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="Z16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AA16">
-        <v>0.9906484453165656</v>
+        <v>0.99324624493948932</v>
       </c>
       <c r="AB16">
-        <v>171.44516919629839</v>
+        <v>123.81884277602917</v>
       </c>
       <c r="AD16" t="s">
         <v>251</v>
@@ -7489,16 +7489,16 @@
         <v>332</v>
       </c>
       <c r="AM16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AO16">
-        <v>0.99102029221888321</v>
+        <v>0.99544376374689236</v>
       </c>
       <c r="AP16">
-        <v>164.62797598714178</v>
+        <v>83.53099797364041</v>
       </c>
       <c r="AR16" t="s">
         <v>251</v>
@@ -7528,13 +7528,13 @@
         <v>427</v>
       </c>
       <c r="BB16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="BC16">
-        <v>0.99121667726062745</v>
+        <v>0.99210159337136916</v>
       </c>
       <c r="BD16">
-        <v>161.02758355516244</v>
+        <v>144.80412152489885</v>
       </c>
     </row>
     <row r="17" spans="2:56">
@@ -7599,16 +7599,16 @@
         <v>266</v>
       </c>
       <c r="Y17" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="Z17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AA17">
-        <v>0.99581499086659175</v>
+        <v>0.98574408150559789</v>
       </c>
       <c r="AB17">
-        <v>76.725167445817675</v>
+        <v>261.35850573070513</v>
       </c>
       <c r="AD17" t="s">
         <v>251</v>
@@ -7635,16 +7635,16 @@
         <v>334</v>
       </c>
       <c r="AM17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN17" t="s">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="AO17">
-        <v>0.99103381617125441</v>
+        <v>0.99397635668510442</v>
       </c>
       <c r="AP17">
-        <v>164.38003686033554</v>
+        <v>110.43346077308482</v>
       </c>
       <c r="AR17" t="s">
         <v>251</v>
@@ -7674,13 +7674,13 @@
         <v>428</v>
       </c>
       <c r="BB17" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="BC17">
-        <v>0.99210159337136916</v>
+        <v>0.98559663740369508</v>
       </c>
       <c r="BD17">
-        <v>144.80412152489885</v>
+        <v>264.06164759892442</v>
       </c>
     </row>
     <row r="18" spans="2:56">
@@ -7745,16 +7745,16 @@
         <v>268</v>
       </c>
       <c r="Y18" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="Z18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AA18">
-        <v>0.9908762455415363</v>
+        <v>0.99096045297563695</v>
       </c>
       <c r="AB18">
-        <v>167.26883173850183</v>
+        <v>165.72502877998866</v>
       </c>
       <c r="AD18" t="s">
         <v>251</v>
@@ -7784,13 +7784,13 @@
         <v>368</v>
       </c>
       <c r="AN18" t="s">
-        <v>306</v>
+        <v>369</v>
       </c>
       <c r="AO18">
-        <v>0.98892100416345008</v>
+        <v>0.98683168951818423</v>
       </c>
       <c r="AP18">
-        <v>203.11492367008205</v>
+        <v>241.41902549995638</v>
       </c>
       <c r="AR18" t="s">
         <v>251</v>
@@ -7820,13 +7820,13 @@
         <v>429</v>
       </c>
       <c r="BB18" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="BC18">
-        <v>0.98559663740369508</v>
+        <v>0.98592997668554583</v>
       </c>
       <c r="BD18">
-        <v>264.06164759892442</v>
+        <v>257.95042743166061</v>
       </c>
     </row>
     <row r="19" spans="2:56">
@@ -7891,16 +7891,16 @@
         <v>270</v>
       </c>
       <c r="Y19" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Z19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AA19">
-        <v>0.99096045297563695</v>
+        <v>0.99551974890890171</v>
       </c>
       <c r="AB19">
-        <v>165.72502877998866</v>
+        <v>82.137936670135986</v>
       </c>
       <c r="AD19" t="s">
         <v>251</v>
@@ -7927,16 +7927,16 @@
         <v>338</v>
       </c>
       <c r="AM19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN19" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="AO19">
-        <v>0.98949472513757064</v>
+        <v>0.98892100416345008</v>
       </c>
       <c r="AP19">
-        <v>192.59670581120548</v>
+        <v>203.11492367008205</v>
       </c>
       <c r="AR19" t="s">
         <v>251</v>
@@ -7966,13 +7966,13 @@
         <v>430</v>
       </c>
       <c r="BB19" t="s">
-        <v>320</v>
+        <v>431</v>
       </c>
       <c r="BC19">
-        <v>0.98592997668554583</v>
+        <v>0.9926579768883198</v>
       </c>
       <c r="BD19">
-        <v>257.95042743166061</v>
+        <v>134.60375704747125</v>
       </c>
     </row>
     <row r="20" spans="2:56">
@@ -8037,16 +8037,16 @@
         <v>272</v>
       </c>
       <c r="Y20" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Z20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AA20">
-        <v>0.99551974890890171</v>
+        <v>0.99619833594549689</v>
       </c>
       <c r="AB20">
-        <v>82.137936670135986</v>
+        <v>69.697174332556941</v>
       </c>
       <c r="AD20" t="s">
         <v>251</v>
@@ -8076,13 +8076,13 @@
         <v>371</v>
       </c>
       <c r="AN20" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
       <c r="AO20">
-        <v>0.99074954647483282</v>
+        <v>0.99657844678159457</v>
       </c>
       <c r="AP20">
-        <v>169.59164796139925</v>
+        <v>62.728475670766194</v>
       </c>
       <c r="AR20" t="s">
         <v>251</v>
@@ -8109,16 +8109,16 @@
         <v>402</v>
       </c>
       <c r="BA20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BB20" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="BC20">
-        <v>0.9926579768883198</v>
+        <v>0.99037637097828846</v>
       </c>
       <c r="BD20">
-        <v>134.60375704747125</v>
+        <v>176.43319873137889</v>
       </c>
     </row>
     <row r="21" spans="2:56">
@@ -8183,16 +8183,16 @@
         <v>274</v>
       </c>
       <c r="Y21" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="Z21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AA21">
-        <v>0.99619833594549689</v>
+        <v>0.9883034158301095</v>
       </c>
       <c r="AB21">
-        <v>69.697174332556941</v>
+        <v>214.43737644799285</v>
       </c>
       <c r="AD21" t="s">
         <v>251</v>
@@ -8219,16 +8219,16 @@
         <v>342</v>
       </c>
       <c r="AM21" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN21" t="s">
         <v>373</v>
       </c>
-      <c r="AN21" t="s">
-        <v>315</v>
-      </c>
       <c r="AO21">
-        <v>0.99018353362868128</v>
+        <v>0.98949472513757064</v>
       </c>
       <c r="AP21">
-        <v>179.9685501408423</v>
+        <v>192.59670581120548</v>
       </c>
       <c r="AR21" t="s">
         <v>251</v>
@@ -8258,13 +8258,13 @@
         <v>433</v>
       </c>
       <c r="BB21" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="BC21">
-        <v>0.99037637097828846</v>
+        <v>0.99144028670108497</v>
       </c>
       <c r="BD21">
-        <v>176.43319873137889</v>
+        <v>156.9280771467763</v>
       </c>
     </row>
     <row r="22" spans="2:56">
@@ -8329,16 +8329,16 @@
         <v>276</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="Z22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AA22">
-        <v>0.99654704284184426</v>
+        <v>0.9901510390044167</v>
       </c>
       <c r="AB22">
-        <v>63.304214566188087</v>
+        <v>180.56428491902676</v>
       </c>
       <c r="AD22" t="s">
         <v>251</v>
@@ -8368,13 +8368,13 @@
         <v>374</v>
       </c>
       <c r="AN22" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="AO22">
-        <v>0.99657844678159457</v>
+        <v>0.99074954647483282</v>
       </c>
       <c r="AP22">
-        <v>62.728475670766194</v>
+        <v>169.59164796139925</v>
       </c>
       <c r="AR22" t="s">
         <v>251</v>
@@ -8404,13 +8404,13 @@
         <v>434</v>
       </c>
       <c r="BB22" t="s">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="BC22">
-        <v>0.98531493655634972</v>
+        <v>0.98604752400777451</v>
       </c>
       <c r="BD22">
-        <v>269.22616313358861</v>
+        <v>255.7953931908016</v>
       </c>
     </row>
     <row r="23" spans="2:56">
@@ -8475,16 +8475,16 @@
         <v>278</v>
       </c>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Z23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AA23">
-        <v>0.99578767700265725</v>
+        <v>0.98960824105727241</v>
       </c>
       <c r="AB23">
-        <v>77.225921617950405</v>
+        <v>190.51558061667333</v>
       </c>
       <c r="AD23" t="s">
         <v>251</v>
@@ -8511,16 +8511,16 @@
         <v>346</v>
       </c>
       <c r="AM23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN23" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="AO23">
-        <v>0.9914370231308075</v>
+        <v>0.99126029591348896</v>
       </c>
       <c r="AP23">
-        <v>156.98790926852976</v>
+        <v>160.22790825270209</v>
       </c>
       <c r="AR23" t="s">
         <v>251</v>
@@ -8550,13 +8550,13 @@
         <v>435</v>
       </c>
       <c r="BB23" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="BC23">
-        <v>0.9871643695249851</v>
+        <v>0.99213695242537014</v>
       </c>
       <c r="BD23">
-        <v>235.31989204193999</v>
+        <v>144.15587220154825</v>
       </c>
     </row>
     <row r="24" spans="2:56">
@@ -8621,16 +8621,16 @@
         <v>280</v>
       </c>
       <c r="Y24" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="Z24" t="s">
         <v>314</v>
       </c>
       <c r="AA24">
-        <v>0.98954239986864923</v>
+        <v>0.99237179242975782</v>
       </c>
       <c r="AB24">
-        <v>191.7226690747643</v>
+        <v>139.85047212110769</v>
       </c>
       <c r="AD24" t="s">
         <v>251</v>
@@ -8657,16 +8657,16 @@
         <v>348</v>
       </c>
       <c r="AM24" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AN24" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="AO24">
-        <v>0.99126029591348896</v>
+        <v>0.99483230658210964</v>
       </c>
       <c r="AP24">
-        <v>160.22790825270209</v>
+        <v>94.741045994655948</v>
       </c>
       <c r="AR24" t="s">
         <v>251</v>
@@ -8696,13 +8696,13 @@
         <v>436</v>
       </c>
       <c r="BB24" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="BC24">
-        <v>0.98946486302362358</v>
+        <v>0.99025419259986314</v>
       </c>
       <c r="BD24">
-        <v>193.14417790023398</v>
+        <v>178.67313566917599</v>
       </c>
     </row>
     <row r="25" spans="2:56">
@@ -8767,16 +8767,16 @@
         <v>282</v>
       </c>
       <c r="Y25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Z25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA25">
-        <v>0.9959491469044518</v>
+        <v>0.9908762455415363</v>
       </c>
       <c r="AB25">
-        <v>74.265640085050762</v>
+        <v>167.26883173850183</v>
       </c>
       <c r="AD25" t="s">
         <v>251</v>
@@ -8803,16 +8803,16 @@
         <v>350</v>
       </c>
       <c r="AM25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN25" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AO25">
-        <v>0.9960929385350632</v>
+        <v>0.99434573613426058</v>
       </c>
       <c r="AP25">
-        <v>71.629460190507217</v>
+        <v>103.6615042052228</v>
       </c>
       <c r="AR25" t="s">
         <v>251</v>
@@ -8845,10 +8845,10 @@
         <v>316</v>
       </c>
       <c r="BC25">
-        <v>0.99255087362635097</v>
+        <v>0.98531493655634972</v>
       </c>
       <c r="BD25">
-        <v>136.56731685023306</v>
+        <v>269.22616313358861</v>
       </c>
     </row>
     <row r="26" spans="2:56">
@@ -8913,16 +8913,16 @@
         <v>284</v>
       </c>
       <c r="Y26" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="Z26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AA26">
-        <v>0.99463383873092592</v>
+        <v>0.9906484453165656</v>
       </c>
       <c r="AB26">
-        <v>98.379623266358081</v>
+        <v>171.44516919629839</v>
       </c>
       <c r="AD26" t="s">
         <v>251</v>
@@ -8949,16 +8949,16 @@
         <v>352</v>
       </c>
       <c r="AM26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN26" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AO26">
-        <v>0.99757986255493836</v>
+        <v>0.99569846360282876</v>
       </c>
       <c r="AP26">
-        <v>44.369186492796821</v>
+        <v>78.861500614806289</v>
       </c>
       <c r="AR26" t="s">
         <v>251</v>
@@ -8988,13 +8988,13 @@
         <v>438</v>
       </c>
       <c r="BB26" t="s">
-        <v>439</v>
+        <v>318</v>
       </c>
       <c r="BC26">
-        <v>0.98922418263827849</v>
+        <v>0.9871643695249851</v>
       </c>
       <c r="BD26">
-        <v>197.55665163156166</v>
+        <v>235.31989204193999</v>
       </c>
     </row>
     <row r="27" spans="2:56">
@@ -9059,16 +9059,16 @@
         <v>286</v>
       </c>
       <c r="Y27" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Z27" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AA27">
-        <v>0.99507556324399316</v>
+        <v>0.99681262466819043</v>
       </c>
       <c r="AB27">
-        <v>90.28134052679161</v>
+        <v>58.435214416509581</v>
       </c>
       <c r="AD27" t="s">
         <v>251</v>
@@ -9095,16 +9095,16 @@
         <v>354</v>
       </c>
       <c r="AM27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN27" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AO27">
-        <v>0.99544376374689236</v>
+        <v>0.99418326051727468</v>
       </c>
       <c r="AP27">
-        <v>83.53099797364041</v>
+        <v>106.64022384996325</v>
       </c>
       <c r="AR27" t="s">
         <v>251</v>
@@ -9131,16 +9131,16 @@
         <v>416</v>
       </c>
       <c r="BA27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BB27" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="BC27">
-        <v>0.99112342225338756</v>
+        <v>0.98946486302362358</v>
       </c>
       <c r="BD27">
-        <v>162.73725868789538</v>
+        <v>193.14417790023398</v>
       </c>
     </row>
     <row r="28" spans="2:56">
@@ -9205,16 +9205,16 @@
         <v>288</v>
       </c>
       <c r="Y28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z28" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AA28">
-        <v>0.99681262466819043</v>
+        <v>0.99423271944065184</v>
       </c>
       <c r="AB28">
-        <v>58.435214416509581</v>
+        <v>105.73347692138286</v>
       </c>
       <c r="AD28" t="s">
         <v>251</v>
@@ -9241,16 +9241,16 @@
         <v>356</v>
       </c>
       <c r="AM28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN28" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AO28">
-        <v>0.99397635668510442</v>
+        <v>0.9914370231308075</v>
       </c>
       <c r="AP28">
-        <v>110.43346077308482</v>
+        <v>156.98790926852976</v>
       </c>
       <c r="AR28" t="s">
         <v>251</v>
@@ -9277,16 +9277,16 @@
         <v>418</v>
       </c>
       <c r="BA28" t="s">
+        <v>440</v>
+      </c>
+      <c r="BB28" t="s">
         <v>441</v>
       </c>
-      <c r="BB28" t="s">
-        <v>312</v>
-      </c>
       <c r="BC28">
-        <v>0.99144028670108497</v>
+        <v>0.98922418263827849</v>
       </c>
       <c r="BD28">
-        <v>156.9280771467763</v>
+        <v>197.55665163156166</v>
       </c>
     </row>
     <row r="29" spans="2:56">
@@ -9351,16 +9351,16 @@
         <v>290</v>
       </c>
       <c r="Y29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Z29" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AA29">
-        <v>0.99423271944065184</v>
+        <v>0.99495348543906925</v>
       </c>
       <c r="AB29">
-        <v>105.73347692138286</v>
+        <v>92.519433617063214</v>
       </c>
       <c r="AD29" t="s">
         <v>251</v>
@@ -9387,16 +9387,16 @@
         <v>358</v>
       </c>
       <c r="AM29" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN29" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="AO29">
-        <v>0.98683168951818423</v>
+        <v>0.99018353362868128</v>
       </c>
       <c r="AP29">
-        <v>241.41902549995638</v>
+        <v>179.9685501408423</v>
       </c>
       <c r="AR29" t="s">
         <v>251</v>
@@ -9426,13 +9426,13 @@
         <v>442</v>
       </c>
       <c r="BB29" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="BC29">
-        <v>0.99123298444407149</v>
+        <v>0.99112342225338756</v>
       </c>
       <c r="BD29">
-        <v>160.72861852535661</v>
+        <v>162.73725868789538</v>
       </c>
     </row>
     <row r="30" spans="2:56">
@@ -9497,16 +9497,16 @@
         <v>292</v>
       </c>
       <c r="Y30" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="Z30" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AA30">
-        <v>0.99495348543906925</v>
+        <v>0.99581499086659175</v>
       </c>
       <c r="AB30">
-        <v>92.519433617063214</v>
+        <v>76.725167445817675</v>
       </c>
     </row>
     <row r="31" spans="2:56">
@@ -9571,16 +9571,16 @@
         <v>294</v>
       </c>
       <c r="Y31" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Z31" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AA31">
-        <v>0.9909877059540344</v>
+        <v>0.99578767700265725</v>
       </c>
       <c r="AB31">
-        <v>165.22539084270321</v>
+        <v>77.225921617950405</v>
       </c>
     </row>
     <row r="32" spans="2:56">
@@ -9645,16 +9645,16 @@
         <v>296</v>
       </c>
       <c r="Y32" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Z32" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="AA32">
-        <v>0.99469106859785295</v>
+        <v>0.98954239986864923</v>
       </c>
       <c r="AB32">
-        <v>97.330409039363303</v>
+        <v>191.7226690747643</v>
       </c>
     </row>
     <row r="33" spans="2:28">
@@ -9719,16 +9719,16 @@
         <v>298</v>
       </c>
       <c r="Y33" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="Z33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA33">
-        <v>0.99324624493948932</v>
+        <v>0.9959491469044518</v>
       </c>
       <c r="AB33">
-        <v>123.81884277602917</v>
+        <v>74.265640085050762</v>
       </c>
     </row>
     <row r="34" spans="2:28">
@@ -9793,16 +9793,16 @@
         <v>300</v>
       </c>
       <c r="Y34" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Z34" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="AA34">
-        <v>0.98574408150559789</v>
+        <v>0.99463383873092592</v>
       </c>
       <c r="AB34">
-        <v>261.35850573070513</v>
+        <v>98.379623266358081</v>
       </c>
     </row>
   </sheetData>
@@ -9811,7 +9811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E668F753-866C-434B-A8D8-9D46EB15AD31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE1F462-C7DF-414F-B98A-300D452FC8D1}">
   <dimension ref="B9:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9926,7 +9926,7 @@
         <v>443</v>
       </c>
       <c r="K11" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L11">
         <v>7.7363165779076795</v>
@@ -9959,7 +9959,7 @@
         <v>481</v>
       </c>
       <c r="X11" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="Y11">
         <v>39.450749999999999</v>
@@ -9994,7 +9994,7 @@
         <v>445</v>
       </c>
       <c r="K12" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="L12">
         <v>2.3427652611420688</v>
@@ -10027,7 +10027,7 @@
         <v>483</v>
       </c>
       <c r="X12" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Y12">
         <v>10.7745</v>
@@ -10062,7 +10062,7 @@
         <v>447</v>
       </c>
       <c r="K13" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="L13">
         <v>21.492626448742886</v>
@@ -10095,7 +10095,7 @@
         <v>485</v>
       </c>
       <c r="X13" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="Y13">
         <v>38.600250000000003</v>
@@ -10130,7 +10130,7 @@
         <v>449</v>
       </c>
       <c r="K14" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="L14">
         <v>6.3986137173550848</v>
@@ -10163,7 +10163,7 @@
         <v>487</v>
       </c>
       <c r="X14" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Y14">
         <v>4.0402500000000003</v>
@@ -10198,7 +10198,7 @@
         <v>451</v>
       </c>
       <c r="K15" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="L15">
         <v>4.0537250245901548</v>
@@ -10231,7 +10231,7 @@
         <v>489</v>
       </c>
       <c r="X15" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Y15">
         <v>39.321750000000002</v>
@@ -10266,7 +10266,7 @@
         <v>453</v>
       </c>
       <c r="K16" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="L16">
         <v>9.6185391844194168</v>
@@ -10299,7 +10299,7 @@
         <v>491</v>
       </c>
       <c r="X16" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="Y16">
         <v>12.592499999999999</v>
@@ -10334,7 +10334,7 @@
         <v>455</v>
       </c>
       <c r="K17" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L17">
         <v>20.992062966824207</v>
@@ -10367,7 +10367,7 @@
         <v>493</v>
       </c>
       <c r="X17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y17">
         <v>15.871499999999999</v>
@@ -10402,7 +10402,7 @@
         <v>457</v>
       </c>
       <c r="K18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L18">
         <v>4.7225970155809494</v>
@@ -10435,7 +10435,7 @@
         <v>495</v>
       </c>
       <c r="X18" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Y18">
         <v>19.04175</v>
@@ -10470,7 +10470,7 @@
         <v>459</v>
       </c>
       <c r="K19" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="L19">
         <v>9.0836490896593176</v>
@@ -10503,7 +10503,7 @@
         <v>497</v>
       </c>
       <c r="X19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Y19">
         <v>28.344000000000001</v>
@@ -10538,7 +10538,7 @@
         <v>461</v>
       </c>
       <c r="K20" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L20">
         <v>10.618766499150132</v>
@@ -10571,7 +10571,7 @@
         <v>499</v>
       </c>
       <c r="X20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Y20">
         <v>14.163</v>
@@ -10606,7 +10606,7 @@
         <v>463</v>
       </c>
       <c r="K21" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="L21">
         <v>37.276481001553563</v>
@@ -10639,7 +10639,7 @@
         <v>501</v>
       </c>
       <c r="X21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y21">
         <v>2.0775000000000001</v>
@@ -10674,7 +10674,7 @@
         <v>465</v>
       </c>
       <c r="K22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L22">
         <v>20.90644030096918</v>
@@ -10707,7 +10707,7 @@
         <v>503</v>
       </c>
       <c r="X22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Y22">
         <v>9.2415000000000003</v>
@@ -10775,7 +10775,7 @@
         <v>505</v>
       </c>
       <c r="X23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y23">
         <v>0.97650000000000003</v>
@@ -10810,7 +10810,7 @@
         <v>469</v>
       </c>
       <c r="K24" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="L24">
         <v>3.655060122103603</v>
@@ -10843,7 +10843,7 @@
         <v>507</v>
       </c>
       <c r="X24" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="Y24">
         <v>6.8857499999999998</v>
@@ -10878,7 +10878,7 @@
         <v>471</v>
       </c>
       <c r="K25" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="L25">
         <v>48.450394178145253</v>
@@ -10911,7 +10911,7 @@
         <v>509</v>
       </c>
       <c r="X25" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Y25">
         <v>71.778000000000006</v>
@@ -10946,7 +10946,7 @@
         <v>473</v>
       </c>
       <c r="K26" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="L26">
         <v>19.948651692996549</v>
@@ -10979,7 +10979,7 @@
         <v>511</v>
       </c>
       <c r="X26" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="Y26">
         <v>40.861499999999999</v>
@@ -11014,7 +11014,7 @@
         <v>475</v>
       </c>
       <c r="K27" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="L27">
         <v>23.13749613808001</v>
@@ -11047,7 +11047,7 @@
         <v>513</v>
       </c>
       <c r="X27" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="Y27">
         <v>53.390250000000002</v>
@@ -11082,7 +11082,7 @@
         <v>477</v>
       </c>
       <c r="K28" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L28">
         <v>6.7463178806119855</v>
@@ -11115,7 +11115,7 @@
         <v>515</v>
       </c>
       <c r="X28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Y28">
         <v>49.423499999999997</v>
@@ -11150,7 +11150,7 @@
         <v>479</v>
       </c>
       <c r="K29" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L29">
         <v>9.7794224100622564</v>
@@ -11183,7 +11183,7 @@
         <v>517</v>
       </c>
       <c r="X29" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Y29">
         <v>48.613500000000002</v>
@@ -11198,7 +11198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9B03F0-E82E-46E9-AF60-BCFE40E17313}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F608295C-762D-4EA3-9562-073181B530E9}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
